--- a/patient_data/patient_42.xlsx
+++ b/patient_data/patient_42.xlsx
@@ -640,10 +640,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -717,10 +717,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -770,34 +770,34 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
+      <c r="S5" t="n">
         <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1010,10 +1010,10 @@
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1457,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1534,52 +1534,52 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
+      <c r="W15" t="n">
         <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1611,52 +1611,52 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
+      <c r="W16" t="n">
         <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1688,52 +1688,52 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
+      <c r="W17" t="n">
         <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1765,19 +1765,19 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1795,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1898,58 +1898,58 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="B20" t="n">
+      <c r="P20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -1975,10 +1975,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
